--- a/Driver_Excel.xlsx
+++ b/Driver_Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Flag</t>
   </si>
@@ -42,17 +42,25 @@
     <t>test.xlsx</t>
   </si>
   <si>
-    <t>EXECUTED</t>
-  </si>
-  <si>
     <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Sample.xlsx</t>
+  </si>
+  <si>
+    <t>Sample_New.xlsx</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -62,7 +70,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,14 +84,21 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
-        <bgColor indexed="11"/>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
-        <fgColor indexed="11"/>
-        <bgColor indexed="11"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -92,59 +107,8 @@
         <bgColor indexed="11"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill>
-        <bgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="43"/>
-        <bgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <bgColor indexed="11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="11"/>
-        <bgColor indexed="11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <bgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="43"/>
-        <bgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="43"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,68 +118,48 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,18 +461,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -543,36 +487,58 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
